--- a/Statystyki_2018/Template/okrc.xlsx
+++ b/Statystyki_2018/Template/okrc.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-Klon-wap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{191D69B2-C629-4F1F-BE87-E9306F4BF66D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74619B2-73C9-45A9-B47F-72353FF28A79}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="C" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -128,13 +140,34 @@
   </si>
   <si>
     <t>stare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminowość sporządzania uzasadnień uzasadnień C i Ns </t>
+  </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>WYZNACZENIA</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>miesiąc</t>
+  </si>
+  <si>
+    <t>sąd</t>
+  </si>
+  <si>
+    <t>wydział</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -225,8 +258,44 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +314,38 @@
         <bgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFFBE5D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFABAB"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -465,11 +564,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -500,6 +905,57 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,38 +965,23 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -548,14 +989,85 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -634,6 +1146,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="C"/>
+      <sheetName val="Wyznaczenia"/>
+      <sheetName val="POMOCE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>w Myślenicach</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>I Cywilny</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="U2" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1017,11 +1563,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1577,7 @@
     <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1061,8 +1607,13 @@
       <c r="Y1" s="6"/>
       <c r="Z1" s="6"/>
       <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1094,8 +1645,13 @@
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
     </row>
-    <row r="3" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1127,8 +1683,13 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
     </row>
-    <row r="4" spans="1:28" ht="21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:33" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -1158,8 +1719,13 @@
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1187,8 +1753,13 @@
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="1:28" ht="16.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1207,231 +1778,630 @@
       <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="17" t="s">
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="33"/>
+      <c r="AG6" s="23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="23" t="s">
+      <c r="M7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="24" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="22"/>
+      <c r="T7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25" t="s">
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="X7" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25" t="s">
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="W7" s="26" t="s">
+      <c r="AB7" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="AC7" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Y7" s="26" t="s">
+      <c r="AD7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="AE7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="27" t="s">
+      <c r="AF7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="AB7" s="17"/>
+      <c r="AG7" s="23"/>
     </row>
-    <row r="8" spans="1:28" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="24" t="s">
+      <c r="G8" s="29"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="U8" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25" t="s">
+      <c r="V8" s="35"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="Y8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="27"/>
-      <c r="AB8" s="17"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="23"/>
     </row>
-    <row r="9" spans="1:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="4" t="s">
+      <c r="G9" s="29"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="4" t="s">
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="Z9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="17"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="23"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="35">
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:X9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="Z7:Z9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="O7:Q7"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:V9"/>
+  <mergeCells count="41">
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:AA6"/>
-    <mergeCell ref="AB6:AB9"/>
+    <mergeCell ref="T6:AF6"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AG6:AG9"/>
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AF7:AF9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AA4"/>
+    <mergeCell ref="F1:AF4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:AA5"/>
+    <mergeCell ref="A5:AF5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="F6:F9"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="S6:S9"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"#REF!pomoce #REF!"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E4">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"#REF!pomoce #REF!"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CStrona &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE67CE59-7BC0-432A-AACC-238163299FDB}">
+  <dimension ref="A1:AJ7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+    </row>
+    <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="str">
+        <f>[1]C!C2:D2</f>
+        <v>w Myślenicach</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42">
+        <f>IF([1]POMOCE!U2,0,"BŁĘDNA NAZWA SĄDU / WYDZIAŁU")</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="str">
+        <f>[1]C!C3:D3</f>
+        <v>I Cywilny</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+    </row>
+    <row r="4" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+    </row>
+    <row r="5" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+    </row>
+    <row r="6" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:P6"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:AJ5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E2:J5 P2:AJ5">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:O5">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D5" xr:uid="{FAEE3191-1B6C-40C5-9B89-88B9D54B33BC}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1868196B-BEF8-4969-BA7D-3264147A595B}">
+          <x14:formula1>
+            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{625DDF85-002A-4344-BA43-DDB62E2D4960}">
+          <x14:formula1>
+            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C3:D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{D39FE250-5E01-4987-83FA-ED4BD467A369}">
+          <x14:formula1>
+            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C2:D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Statystyki_2018/Template/okrc.xlsx
+++ b/Statystyki_2018/Template/okrc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21DFF32B-1329-4132-A59F-8FD98BD4CBA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D4ADB-F717-4AB8-BD24-F47C2D312581}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15468" yWindow="1380" windowWidth="15576" windowHeight="12504" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Informacja statystyczna z ruchu spraw</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>wydział</t>
+  </si>
+  <si>
+    <t>Cz</t>
   </si>
 </sst>
 </file>
@@ -345,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -870,11 +873,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -915,6 +955,84 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,100 +1054,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1040,6 +1068,27 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,57 +1613,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="34" max="34" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:34" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
-    <row r="2" spans="1:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
+    <row r="2" spans="1:34" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1623,36 +1675,37 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
     </row>
-    <row r="3" spans="1:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="35"/>
+    <row r="3" spans="1:34" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="18"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1661,333 +1714,368 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
     </row>
-    <row r="4" spans="1:33" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:34" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
     </row>
-    <row r="5" spans="1:33" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
+    <row r="5" spans="1:34" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
     </row>
-    <row r="6" spans="1:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:34" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="43"/>
+      <c r="J6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19" t="s">
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="49" t="s">
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="27" t="s">
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="28" t="s">
+    <row r="7" spans="1:34" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="43" t="s">
+      <c r="N7" s="45"/>
+      <c r="O7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="P7" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="Q7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="33"/>
+      <c r="T7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="23" t="s">
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="X7" s="23" t="s">
+      <c r="X7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23" t="s">
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="AC7" s="26" t="s">
+      <c r="AC7" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="AD7" s="26" t="s">
+      <c r="AD7" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="AE7" s="26" t="s">
+      <c r="AE7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AF7" s="32" t="s">
+      <c r="AG7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AG7" s="27"/>
+      <c r="AH7" s="34"/>
     </row>
-    <row r="8" spans="1:33" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="21" t="s">
+    <row r="8" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="U8" s="22" t="s">
+      <c r="U8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23" t="s">
+      <c r="V8" s="48"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="27"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="59"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="41"/>
+      <c r="AH8" s="34"/>
     </row>
-    <row r="9" spans="1:33" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="21"/>
+    <row r="9" spans="1:34" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="47"/>
       <c r="U9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="V9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="39"/>
       <c r="Y9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="Z9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="27"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="60"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="34"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="41">
+  <mergeCells count="42">
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="T6:AG6"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AB7:AB9"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="AH6:AH9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AD7:AD9"/>
+    <mergeCell ref="AF7:AF9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="AE7:AE9"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:AF4"/>
+    <mergeCell ref="F1:AG4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:AF5"/>
+    <mergeCell ref="A5:AG5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C9"/>
@@ -2000,31 +2088,6 @@
     <mergeCell ref="Q7:Q9"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="S6:S9"/>
-    <mergeCell ref="AG6:AG9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AD7:AD9"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AF7:AF9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="T6:AF6"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AB7:AB9"/>
-    <mergeCell ref="AC7:AC9"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" sqref="C2 C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -2056,251 +2119,251 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="55"/>
-      <c r="AF1" s="55"/>
-      <c r="AG1" s="55"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
     </row>
     <row r="2" spans="1:36" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="56" t="str">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52" t="str">
         <f>[1]C!C2:D2</f>
         <v>w Myślenicach</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="57">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53">
         <f>IF([1]POMOCE!U2,0,"BŁĘDNA NAZWA SĄDU / WYDZIAŁU")</f>
         <v>0</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="57"/>
-      <c r="Z2" s="57"/>
-      <c r="AA2" s="57"/>
-      <c r="AB2" s="57"/>
-      <c r="AC2" s="57"/>
-      <c r="AD2" s="57"/>
-      <c r="AE2" s="57"/>
-      <c r="AF2" s="57"/>
-      <c r="AG2" s="57"/>
-      <c r="AH2" s="57"/>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+      <c r="AE2" s="53"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
     </row>
     <row r="3" spans="1:36" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="str">
+      <c r="B3" s="51"/>
+      <c r="C3" s="52" t="str">
         <f>[1]C!C3:D3</f>
         <v>I Cywilny</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="57"/>
-      <c r="Z3" s="57"/>
-      <c r="AA3" s="57"/>
-      <c r="AB3" s="57"/>
-      <c r="AC3" s="57"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="57"/>
-      <c r="AF3" s="57"/>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="57"/>
-      <c r="AJ3" s="57"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="53"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="53"/>
     </row>
     <row r="4" spans="1:36" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
     </row>
     <row r="5" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="57"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="57"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
     </row>
     <row r="6" spans="1:36" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="51" t="s">
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="54" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
@@ -2334,10 +2397,17 @@
       <c r="P7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="51"/>
+      <c r="Q7" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:P6"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -2345,13 +2415,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:P6"/>
   </mergeCells>
   <conditionalFormatting sqref="E2:J5 P2:AJ5">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -2375,7 +2438,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1868196B-BEF8-4969-BA7D-3264147A595B}">
           <x14:formula1>
-            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+            <xm:f>'C:\Users\rskowron\Downloads\[okrc_na2019.xlsx]POMOCE'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
@@ -2384,7 +2447,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{625DDF85-002A-4344-BA43-DDB62E2D4960}">
           <x14:formula1>
-            <xm:f>[okrc_na2019.xlsx]POMOCE!#REF!</xm:f>
+            <xm:f>'C:\Users\rskowron\Downloads\[okrc_na2019.xlsx]POMOCE'!#REF!</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
